--- a/GLOBAL/Impactos Cambio Climático/Ecosistemas/Acidez del Océano 1985-2018.xlsx
+++ b/GLOBAL/Impactos Cambio Climático/Ecosistemas/Acidez del Océano 1985-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\DATAICC\Océano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos Cambio Climático\Ecosistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{214428D4-9D8A-4020-B28B-96225C075F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C09A0DB-EBA1-46B1-85F2-939A107673E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1735,16 +1735,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pH_oceano_MUNDO" displayName="pH_oceano_MUNDO" ref="A1:G35" totalsRowShown="0">
-  <autoFilter ref="A1:G35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="pH_oceano_MUNDO" displayName="pH_oceano_MUNDO" ref="A1:G35" totalsRowShown="0">
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Año"/>
-    <tableColumn id="2" name="pH"/>
-    <tableColumn id="3" name="Incertidumbre"/>
-    <tableColumn id="4" name="Error Superior"/>
-    <tableColumn id="5" name="Error Inferior"/>
-    <tableColumn id="6" name="Límite Inferior de Incertidumbre"/>
-    <tableColumn id="7" name="Límite Superior de Incertidumbre"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pH"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Incertidumbre"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Error Superior"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Error Inferior"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Límite Inferior de Incertidumbre"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Límite Superior de Incertidumbre"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2046,10 +2046,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>

--- a/GLOBAL/Impactos Cambio Climático/Ecosistemas/Acidez del Océano 1985-2018.xlsx
+++ b/GLOBAL/Impactos Cambio Climático/Ecosistemas/Acidez del Océano 1985-2018.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos Cambio Climático\Ecosistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C09A0DB-EBA1-46B1-85F2-939A107673E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE19A29E-971C-41B9-8C89-8512CD410ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="3" r:id="rId1"/>
+    <sheet name="MUNDO" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Año</t>
   </si>
@@ -42,12 +42,18 @@
   <si>
     <t>Límite Superior de Incertidumbre</t>
   </si>
+  <si>
+    <t>Variación pH</t>
+  </si>
+  <si>
+    <t>Variación Porcentual pH (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +184,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -571,7 +583,14 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -684,7 +703,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja2!$A$2:$A$35</c:f>
+              <c:f>MUNDO!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -795,7 +814,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$2:$B$35</c:f>
+              <c:f>MUNDO!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1697,13 +1716,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1735,11 +1754,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="pH_oceano_MUNDO" displayName="pH_oceano_MUNDO" ref="A1:G35" totalsRowShown="0">
-  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="pH_oceano_MUNDO" displayName="pH_oceano_MUNDO" ref="A1:I35" totalsRowShown="0">
+  <autoFilter ref="A1:I35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pH"/>
+    <tableColumn id="8" xr3:uid="{6D040863-97BA-4FD7-8630-E5B1E099D51F}" name="Variación pH" dataDxfId="1">
+      <calculatedColumnFormula>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B1,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9737D921-1B55-422D-81CE-A43A61634966}" name="Variación Porcentual pH (%)" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B1)/B1)*100,0)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Incertidumbre"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Error Superior"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Error Inferior"/>
@@ -2047,23 +2072,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="73.42578125" customWidth="1"/>
-    <col min="3" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="3" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2071,22 +2097,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1985</v>
       </c>
@@ -2094,16 +2126,24 @@
         <v>8.109</v>
       </c>
       <c r="C2">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B1)/B1)*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>8.1698999999999997E-4</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>8.1080000000000005</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>8.11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1986</v>
       </c>
@@ -2111,16 +2151,24 @@
         <v>8.1080000000000005</v>
       </c>
       <c r="C3">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B2,0)</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="D3">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B2)/B2)*100,0)</f>
+        <v>-1.2331976815876751E-2</v>
+      </c>
+      <c r="E3">
         <v>7.8907900000000004E-4</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>8.1069999999999993</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>8.109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1987</v>
       </c>
@@ -2128,16 +2176,24 @@
         <v>8.1069999999999993</v>
       </c>
       <c r="C4">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B3,0)</f>
+        <v>-1.0000000000012221E-3</v>
+      </c>
+      <c r="D4">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B3)/B3)*100,0)</f>
+        <v>-1.2333497779985471E-2</v>
+      </c>
+      <c r="E4">
         <v>7.0805300000000005E-4</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>8.1059999999999999</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>8.1069999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1988</v>
       </c>
@@ -2145,16 +2201,24 @@
         <v>8.1039999999999992</v>
       </c>
       <c r="C5">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B4,0)</f>
+        <v>-3.0000000000001137E-3</v>
+      </c>
+      <c r="D5">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B4)/B4)*100,0)</f>
+        <v>-3.7005057357840314E-2</v>
+      </c>
+      <c r="E5">
         <v>8.9332599999999995E-4</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>8.1029999999999998</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>8.1050000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1989</v>
       </c>
@@ -2162,16 +2226,24 @@
         <v>8.1029999999999998</v>
       </c>
       <c r="C6">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B5,0)</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="D6">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B5)/B5)*100,0)</f>
+        <v>-1.2339585389924062E-2</v>
+      </c>
+      <c r="E6">
         <v>6.6877600000000005E-4</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>8.1020000000000003</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>8.1039999999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1990</v>
       </c>
@@ -2179,16 +2251,24 @@
         <v>8.1020000000000003</v>
       </c>
       <c r="C7">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B6,0)</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="D7">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B6)/B6)*100,0)</f>
+        <v>-1.2341108231512353E-2</v>
+      </c>
+      <c r="E7">
         <v>8.2391099999999998E-4</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>8.1010000000000009</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>8.1029999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1991</v>
       </c>
@@ -2196,16 +2276,24 @@
         <v>8.1010000000000009</v>
       </c>
       <c r="C8">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B7,0)</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="D8">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B7)/B7)*100,0)</f>
+        <v>-1.234263144901809E-2</v>
+      </c>
+      <c r="E8">
         <v>7.2820600000000001E-4</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>8.1</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>8.1020000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1992</v>
       </c>
@@ -2213,16 +2301,24 @@
         <v>8.1010000000000009</v>
       </c>
       <c r="C9">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B8)/B8)*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>6.5494900000000005E-4</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>8.1</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>8.1010000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1993</v>
       </c>
@@ -2230,16 +2326,24 @@
         <v>8.1</v>
       </c>
       <c r="C10">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B9,0)</f>
+        <v>-1.0000000000012221E-3</v>
+      </c>
+      <c r="D10">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B9)/B9)*100,0)</f>
+        <v>-1.2344155042602419E-2</v>
+      </c>
+      <c r="E10">
         <v>7.1596599999999995E-4</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>8.0990000000000002</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>8.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1994</v>
       </c>
@@ -2247,16 +2351,24 @@
         <v>8.0980000000000008</v>
       </c>
       <c r="C11">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B10,0)</f>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+      <c r="D11">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B10)/B10)*100,0)</f>
+        <v>-2.4691358024677677E-2</v>
+      </c>
+      <c r="E11">
         <v>6.8971099999999997E-4</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>8.0969999999999995</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>8.0980000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1995</v>
       </c>
@@ -2264,16 +2376,24 @@
         <v>8.0960000000000001</v>
       </c>
       <c r="C12">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B11,0)</f>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="D12">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B11)/B11)*100,0)</f>
+        <v>-2.4697456162023557E-2</v>
+      </c>
+      <c r="E12">
         <v>7.6531699999999995E-4</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>8.0950000000000006</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>8.0969999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1996</v>
       </c>
@@ -2281,16 +2401,24 @@
         <v>8.0939999999999994</v>
       </c>
       <c r="C13">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B12,0)</f>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="D13">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B12)/B12)*100,0)</f>
+        <v>-2.4703557312261214E-2</v>
+      </c>
+      <c r="E13">
         <v>6.5828800000000004E-4</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>8.093</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>8.0950000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1997</v>
       </c>
@@ -2298,16 +2426,24 @@
         <v>8.0939999999999994</v>
       </c>
       <c r="C14">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B13)/B13)*100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>6.1300700000000005E-4</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>8.093</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>8.0939999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -2315,16 +2451,24 @@
         <v>8.0909999999999993</v>
       </c>
       <c r="C15">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B14,0)</f>
+        <v>-3.0000000000001137E-3</v>
+      </c>
+      <c r="D15">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B14)/B14)*100,0)</f>
+        <v>-3.7064492216458043E-2</v>
+      </c>
+      <c r="E15">
         <v>7.4392700000000002E-4</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>8.09</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>8.0909999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1999</v>
       </c>
@@ -2332,16 +2476,24 @@
         <v>8.0879999999999992</v>
       </c>
       <c r="C16">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B15,0)</f>
+        <v>-3.0000000000001137E-3</v>
+      </c>
+      <c r="D16">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B15)/B15)*100,0)</f>
+        <v>-3.7078235076011788E-2</v>
+      </c>
+      <c r="E16">
         <v>7.3421200000000004E-4</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>8.0869999999999997</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>8.0890000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -2349,16 +2501,24 @@
         <v>8.0869999999999997</v>
       </c>
       <c r="C17">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B16,0)</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="D17">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B16)/B16)*100,0)</f>
+        <v>-1.2363996043514416E-2</v>
+      </c>
+      <c r="E17">
         <v>6.1853400000000001E-4</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>8.0860000000000003</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>8.0879999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2001</v>
       </c>
@@ -2366,16 +2526,24 @@
         <v>8.0860000000000003</v>
       </c>
       <c r="C18">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B17,0)</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="D18">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B17)/B17)*100,0)</f>
+        <v>-1.2365524916525854E-2</v>
+      </c>
+      <c r="E18">
         <v>6.1855700000000005E-4</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>8.0850000000000009</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>8.0860000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -2383,16 +2551,24 @@
         <v>8.0839999999999996</v>
       </c>
       <c r="C19">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B18,0)</f>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="D19">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B18)/B18)*100,0)</f>
+        <v>-2.4734108335402766E-2</v>
+      </c>
+      <c r="E19">
         <v>6.2833300000000002E-4</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>8.0839999999999996</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>8.0850000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2003</v>
       </c>
@@ -2400,16 +2576,24 @@
         <v>8.0820000000000007</v>
       </c>
       <c r="C20">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B19,0)</f>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+      <c r="D20">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B19)/B19)*100,0)</f>
+        <v>-2.4740227610080299E-2</v>
+      </c>
+      <c r="E20">
         <v>7.3248499999999995E-4</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>8.0820000000000007</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>8.0830000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -2417,16 +2601,24 @@
         <v>8.0809999999999995</v>
       </c>
       <c r="C21">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B20,0)</f>
+        <v>-1.0000000000012221E-3</v>
+      </c>
+      <c r="D21">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B20)/B20)*100,0)</f>
+        <v>-1.237317495670901E-2</v>
+      </c>
+      <c r="E21">
         <v>7.1016700000000005E-4</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>8.08</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>8.0820000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2005</v>
       </c>
@@ -2434,16 +2626,24 @@
         <v>8.0790000000000006</v>
       </c>
       <c r="C22">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B21,0)</f>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+      <c r="D22">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B21)/B21)*100,0)</f>
+        <v>-2.47494122014465E-2</v>
+      </c>
+      <c r="E22">
         <v>7.1635999999999998E-4</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>8.0779999999999994</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>8.08</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2006</v>
       </c>
@@ -2451,16 +2651,24 @@
         <v>8.077</v>
       </c>
       <c r="C23">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B22,0)</f>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="D23">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B22)/B22)*100,0)</f>
+        <v>-2.4755539051871119E-2</v>
+      </c>
+      <c r="E23">
         <v>7.4066599999999996E-4</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>8.077</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>8.0779999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2007</v>
       </c>
@@ -2468,16 +2676,24 @@
         <v>8.0749999999999993</v>
       </c>
       <c r="C24">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B23,0)</f>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="D24">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B23)/B23)*100,0)</f>
+        <v>-2.4761668936494587E-2</v>
+      </c>
+      <c r="E24">
         <v>6.8386200000000003E-4</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>8.0749999999999993</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>8.0760000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2008</v>
       </c>
@@ -2485,16 +2701,24 @@
         <v>8.0739999999999998</v>
       </c>
       <c r="C25">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B24,0)</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="D25">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B24)/B24)*100,0)</f>
+        <v>-1.2383900928785706E-2</v>
+      </c>
+      <c r="E25">
         <v>6.8973199999999998E-4</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>8.0730000000000004</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>8.0739999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2009</v>
       </c>
@@ -2502,16 +2726,24 @@
         <v>8.0730000000000004</v>
       </c>
       <c r="C26">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B25,0)</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="D26">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B25)/B25)*100,0)</f>
+        <v>-1.2385434728752115E-2</v>
+      </c>
+      <c r="E26">
         <v>6.2788500000000001E-4</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>8.0719999999999992</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>8.0730000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2010</v>
       </c>
@@ -2519,16 +2751,24 @@
         <v>8.0709999999999997</v>
       </c>
       <c r="C27">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B26,0)</f>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="D27">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B26)/B26)*100,0)</f>
+        <v>-2.4773937817424353E-2</v>
+      </c>
+      <c r="E27">
         <v>7.5926499999999996E-4</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>8.07</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>8.0719999999999992</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -2536,16 +2776,24 @@
         <v>8.0690000000000008</v>
       </c>
       <c r="C28">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B27,0)</f>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+      <c r="D28">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B27)/B27)*100,0)</f>
+        <v>-2.4780076818224406E-2</v>
+      </c>
+      <c r="E28">
         <v>8.2422300000000001E-4</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>8.0679999999999996</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>8.07</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -2553,16 +2801,24 @@
         <v>8.0670000000000002</v>
       </c>
       <c r="C29">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B28,0)</f>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="D29">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B28)/B28)*100,0)</f>
+        <v>-2.4786218862320832E-2</v>
+      </c>
+      <c r="E29">
         <v>7.3786100000000003E-4</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>8.0670000000000002</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>8.0679999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2570,16 +2826,24 @@
         <v>8.0649999999999995</v>
       </c>
       <c r="C30">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B29,0)</f>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="D30">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B29)/B29)*100,0)</f>
+        <v>-2.4792363951911093E-2</v>
+      </c>
+      <c r="E30">
         <v>7.5295500000000003E-4</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>8.0640000000000001</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>8.0660000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -2587,16 +2851,24 @@
         <v>8.0640000000000001</v>
       </c>
       <c r="C31">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B30,0)</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="D31">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B30)/B30)*100,0)</f>
+        <v>-1.2399256044630451E-2</v>
+      </c>
+      <c r="E31">
         <v>7.0322099999999997E-4</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>8.0630000000000006</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>8.0640000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -2604,16 +2876,24 @@
         <v>8.0619999999999994</v>
       </c>
       <c r="C32">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B31,0)</f>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="D32">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B31)/B31)*100,0)</f>
+        <v>-2.4801587301595582E-2</v>
+      </c>
+      <c r="E32">
         <v>7.17608E-4</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>8.0609999999999999</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>8.0630000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2016</v>
       </c>
@@ -2621,16 +2901,24 @@
         <v>8.06</v>
       </c>
       <c r="C33">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B32,0)</f>
+        <v>-1.9999999999988916E-3</v>
+      </c>
+      <c r="D33">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B32)/B32)*100,0)</f>
+        <v>-2.4807740014870894E-2</v>
+      </c>
+      <c r="E33">
         <v>7.6500799999999996E-4</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>8.0589999999999993</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>8.06</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2017</v>
       </c>
@@ -2638,16 +2926,24 @@
         <v>8.0579999999999998</v>
       </c>
       <c r="C34">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B33,0)</f>
+        <v>-2.0000000000006679E-3</v>
+      </c>
+      <c r="D34">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B33)/B33)*100,0)</f>
+        <v>-2.4813895781646E-2</v>
+      </c>
+      <c r="E34">
         <v>7.9016700000000004E-4</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>8.0570000000000004</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>8.0589999999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2655,16 +2951,25 @@
         <v>8.0570000000000004</v>
       </c>
       <c r="C35">
+        <f>IFERROR(pH_oceano_MUNDO[[#This Row],[pH]]-B34,0)</f>
+        <v>-9.9999999999944578E-4</v>
+      </c>
+      <c r="D35">
+        <f>IFERROR(((pH_oceano_MUNDO[[#This Row],[pH]]-B34)/B34)*100,0)</f>
+        <v>-1.2410027302053187E-2</v>
+      </c>
+      <c r="E35">
         <v>7.4004699999999997E-4</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>8.0559999999999992</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>8.0570000000000004</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
